--- a/public/storage/formatos/formato_carga_venta.xlsx
+++ b/public/storage/formatos/formato_carga_venta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISTIAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0513796-5139-43E3-BEB5-B8D3B62590FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB8B6FF-85A2-4408-81EB-D2CE35DB2204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74319ED1-D0F3-45C8-B971-01DF3C994817}"/>
+    <workbookView xWindow="7650" yWindow="4590" windowWidth="15330" windowHeight="10890" xr2:uid="{74319ED1-D0F3-45C8-B971-01DF3C994817}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>001-999-237383838</t>
   </si>
   <si>
-    <t>FACURADO</t>
-  </si>
-  <si>
     <t>005-111-237383838</t>
   </si>
   <si>
     <t>5454DSS12</t>
+  </si>
+  <si>
+    <t>FACTURADO</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
         <v>23134545</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,13 +453,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
